--- a/data/trans_orig/P70A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>32653</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26011</v>
+        <v>25668</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38222</v>
+        <v>37899</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7158474895634293</v>
+        <v>0.7158474895634291</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5702332117815696</v>
+        <v>0.562704325683947</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8379357035831184</v>
+        <v>0.8308492788169156</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -762,19 +762,19 @@
         <v>33727</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29226</v>
+        <v>29601</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36982</v>
+        <v>37043</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8013797097140125</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6944336207827685</v>
+        <v>0.7033402373293839</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8787246027595601</v>
+        <v>0.8801621930110622</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>87</v>
@@ -783,19 +783,19 @@
         <v>66381</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59183</v>
+        <v>58690</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73339</v>
+        <v>73293</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7568929068974012</v>
+        <v>0.7568929068974013</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6748192284228967</v>
+        <v>0.6691936982215373</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8362317451208581</v>
+        <v>0.8356997646777652</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>7236</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2725</v>
+        <v>3168</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13076</v>
+        <v>13873</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1586282279823265</v>
+        <v>0.1586282279823264</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05974452646889869</v>
+        <v>0.06945600571321615</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2866525450139292</v>
+        <v>0.3041228766324951</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -833,19 +833,19 @@
         <v>6149</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3136</v>
+        <v>3421</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9926</v>
+        <v>9996</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1461097336181063</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07451485483625235</v>
+        <v>0.08128660567871164</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2358449056891308</v>
+        <v>0.2375027806922096</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -854,19 +854,19 @@
         <v>13385</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8403</v>
+        <v>8247</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19958</v>
+        <v>21369</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1526208213621338</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09580961114949775</v>
+        <v>0.09402917154287295</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2275706310110045</v>
+        <v>0.2436582364014162</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>5726</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2513</v>
+        <v>2096</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11813</v>
+        <v>11775</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1255242824542444</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05508172292616326</v>
+        <v>0.04595426153980121</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2589677902633344</v>
+        <v>0.2581436015214796</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -904,7 +904,7 @@
         <v>2210</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>556</v>
+        <v>615</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>5528</v>
@@ -913,10 +913,10 @@
         <v>0.05251055666788092</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01321416792766176</v>
+        <v>0.01461717776004474</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1313539602786283</v>
+        <v>0.1313410807905569</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -925,19 +925,19 @@
         <v>7936</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4118</v>
+        <v>3541</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13890</v>
+        <v>13626</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.09048627174046507</v>
+        <v>0.09048627174046506</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04695139051240062</v>
+        <v>0.04038092401775947</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1583731481185884</v>
+        <v>0.1553705607497371</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>51686</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42846</v>
+        <v>42809</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>59541</v>
+        <v>59747</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7376439302445735</v>
+        <v>0.7376439302445739</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6114786015771373</v>
+        <v>0.6109477966188044</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8497412793049034</v>
+        <v>0.8526944953139211</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>53</v>
@@ -1050,19 +1050,19 @@
         <v>45345</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>39583</v>
+        <v>39072</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50441</v>
+        <v>51056</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7702773867842336</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6724008212328417</v>
+        <v>0.6637257852438496</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8568556495142559</v>
+        <v>0.8672964696736033</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>86</v>
@@ -1071,19 +1071,19 @@
         <v>97031</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>87012</v>
+        <v>86385</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>107313</v>
+        <v>106419</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7525432823745977</v>
+        <v>0.7525432823745978</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.674837764652317</v>
+        <v>0.669979012799015</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8322901707190867</v>
+        <v>0.825358240841253</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>15620</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8556</v>
+        <v>8352</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24529</v>
+        <v>24403</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2229292018808344</v>
+        <v>0.2229292018808345</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1221062566524306</v>
+        <v>0.1191960314220778</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3500670604327014</v>
+        <v>0.3482690824225413</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -1121,19 +1121,19 @@
         <v>8604</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4399</v>
+        <v>4326</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>14122</v>
+        <v>14955</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1461637106983848</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07472767773475297</v>
+        <v>0.07348787684258667</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.239896493001429</v>
+        <v>0.2540441902122624</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>22</v>
@@ -1142,19 +1142,19 @@
         <v>24225</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>15271</v>
+        <v>15840</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>33596</v>
+        <v>34689</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.187880628856658</v>
+        <v>0.1878806288566581</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1184404690168378</v>
+        <v>0.1228473812874158</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2605647485072406</v>
+        <v>0.2690412242610252</v>
       </c>
     </row>
     <row r="10">
@@ -1174,16 +1174,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8637</v>
+        <v>9220</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03942686787459163</v>
+        <v>0.03942686787459165</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1232625477990071</v>
+        <v>0.1315890003292746</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1192,19 +1192,19 @@
         <v>4919</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2053</v>
+        <v>2100</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10086</v>
+        <v>9556</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0835589025173816</v>
+        <v>0.08355890251738159</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03487709178945668</v>
+        <v>0.03567715183028645</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1713338781990714</v>
+        <v>0.1623368240533699</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1213,19 +1213,19 @@
         <v>7682</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3896</v>
+        <v>3651</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15052</v>
+        <v>14063</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05957608876874431</v>
+        <v>0.05957608876874432</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03021389205917021</v>
+        <v>0.02831465329985685</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1167387315141354</v>
+        <v>0.109068999032614</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>23446</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18639</v>
+        <v>17957</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27945</v>
+        <v>27300</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7286030330106945</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.579242613657206</v>
+        <v>0.5580444527949071</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8684196411049153</v>
+        <v>0.8483704584243347</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -1338,19 +1338,19 @@
         <v>15902</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11462</v>
+        <v>11407</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19830</v>
+        <v>19932</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.6281113544222499</v>
+        <v>0.6281113544222497</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4527359815167122</v>
+        <v>0.450559370029126</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7832603633250108</v>
+        <v>0.7872916508080802</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>48</v>
@@ -1359,19 +1359,19 @@
         <v>39348</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30962</v>
+        <v>32615</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>44743</v>
+        <v>44951</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6843541773944152</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5385018809344657</v>
+        <v>0.567248436818124</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.778187939810278</v>
+        <v>0.781809687610267</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>3402</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>863</v>
+        <v>897</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7841</v>
+        <v>7956</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1057090697054491</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02681379777247994</v>
+        <v>0.02786854968188675</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2436710060839148</v>
+        <v>0.2472270923037333</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1409,19 +1409,19 @@
         <v>3755</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1646</v>
+        <v>1347</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6963</v>
+        <v>7029</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1483300130194943</v>
+        <v>0.1483300130194942</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06502603172061257</v>
+        <v>0.05322486961167774</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2750482181093853</v>
+        <v>0.2776304951591491</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1430,19 +1430,19 @@
         <v>7157</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3454</v>
+        <v>3584</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12192</v>
+        <v>12536</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1244760760230216</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06006634330200971</v>
+        <v>0.06232608746227781</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2120411648626047</v>
+        <v>0.2180299197663363</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>5332</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2523</v>
+        <v>2418</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10302</v>
+        <v>10038</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1656878972838564</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07839952008498849</v>
+        <v>0.07512669280586488</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3201402693687753</v>
+        <v>0.3119480817722493</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1480,19 +1480,19 @@
         <v>5660</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2617</v>
+        <v>2107</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10488</v>
+        <v>10542</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.223558632558256</v>
+        <v>0.2235586325582559</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.103384060097669</v>
+        <v>0.0832287772839803</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.414260548245449</v>
+        <v>0.4164173606503004</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -1501,19 +1501,19 @@
         <v>10991</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6366</v>
+        <v>6493</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18657</v>
+        <v>17980</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1911697465825632</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1107130244435761</v>
+        <v>0.1129379926956876</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3244939873212789</v>
+        <v>0.3127177824726748</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>47821</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38955</v>
+        <v>38296</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54564</v>
+        <v>54461</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8005537254560779</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6521260311682315</v>
+        <v>0.6410966681386333</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9134395385600066</v>
+        <v>0.9117149344613075</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -1626,19 +1626,19 @@
         <v>39751</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34890</v>
+        <v>34698</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43357</v>
+        <v>43195</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8341883984285886</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7321916344235652</v>
+        <v>0.728152889599876</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9098570815182658</v>
+        <v>0.906461769102507</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>75</v>
@@ -1647,19 +1647,19 @@
         <v>87573</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>77292</v>
+        <v>76988</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>95356</v>
+        <v>95221</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8154788176685968</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7197415491644406</v>
+        <v>0.7169181096602445</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.887953601366223</v>
+        <v>0.8866981844160888</v>
       </c>
     </row>
     <row r="17">
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5134</v>
+        <v>4424</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01554274824143321</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08595116290095953</v>
+        <v>0.07405699192702719</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4560</v>
+        <v>5415</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.00864578953073168</v>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04246724414027324</v>
+        <v>0.05042036461377065</v>
       </c>
     </row>
     <row r="18">
@@ -1739,19 +1739,19 @@
         <v>10985</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4385</v>
+        <v>4466</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19754</v>
+        <v>20948</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1839035263024888</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07340207561095038</v>
+        <v>0.07476072749441591</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3307019847671838</v>
+        <v>0.3506784335762342</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -1760,19 +1760,19 @@
         <v>7901</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4295</v>
+        <v>4457</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12762</v>
+        <v>12954</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1658116015714115</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09014291848173402</v>
+        <v>0.09353823089749261</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2678083655764347</v>
+        <v>0.2718471104001239</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>19</v>
@@ -1781,19 +1781,19 @@
         <v>18887</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11434</v>
+        <v>11491</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>29433</v>
+        <v>28622</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1758753928006716</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1064751610008615</v>
+        <v>0.1070055038214428</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2740764140914385</v>
+        <v>0.2665275768475569</v>
       </c>
     </row>
     <row r="19">
@@ -1885,16 +1885,16 @@
         <v>13977</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10379</v>
+        <v>9662</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>15717</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8892699265205481</v>
+        <v>0.8892699265205483</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6603538893558948</v>
+        <v>0.614766159500358</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1906,19 +1906,19 @@
         <v>9860</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7931</v>
+        <v>7940</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11159</v>
+        <v>11154</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8499581554050213</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6837030690048725</v>
+        <v>0.684494738313824</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9619963081634662</v>
+        <v>0.9615125959523528</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>39</v>
@@ -1927,19 +1927,19 @@
         <v>23836</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>20262</v>
+        <v>20078</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>26029</v>
+        <v>25904</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8725758157875428</v>
+        <v>0.8725758157875427</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7417384957950881</v>
+        <v>0.7350122015763915</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9528457085110181</v>
+        <v>0.9482711047486195</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3289</v>
+        <v>3156</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04672534363730321</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2092588608863451</v>
+        <v>0.2008246535170491</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -1977,19 +1977,19 @@
         <v>1740</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3669</v>
+        <v>3660</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1500418445949788</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03800369183653384</v>
+        <v>0.03848740404764717</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3162969309951275</v>
+        <v>0.315505261686176</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -1998,19 +1998,19 @@
         <v>2475</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>872</v>
+        <v>852</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>5630</v>
+        <v>5357</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.09059966063170777</v>
+        <v>0.0905996606317078</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03193412104039635</v>
+        <v>0.03118427932409356</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2060858903588814</v>
+        <v>0.1960982096014885</v>
       </c>
     </row>
     <row r="22">
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4435</v>
+        <v>5686</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06400472984214858</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2821528158109718</v>
+        <v>0.3617449343738687</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2064,16 +2064,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4120</v>
+        <v>4990</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.03682452358074956</v>
+        <v>0.03682452358074955</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1508326106039385</v>
+        <v>0.1826613753711678</v>
       </c>
     </row>
     <row r="23">
@@ -2165,19 +2165,19 @@
         <v>27428</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>22222</v>
+        <v>21942</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>31704</v>
+        <v>31423</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7477112170807467</v>
+        <v>0.7477112170807466</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6057912640120223</v>
+        <v>0.5981678221189298</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8642846225035171</v>
+        <v>0.8566291419328836</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>27</v>
@@ -2186,19 +2186,19 @@
         <v>18856</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15413</v>
+        <v>15089</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>21726</v>
+        <v>21545</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.7620874009679357</v>
+        <v>0.7620874009679354</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6229291647967138</v>
+        <v>0.6098165784129855</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8780747269424833</v>
+        <v>0.8707649100763365</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>59</v>
@@ -2207,19 +2207,19 @@
         <v>46284</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>40235</v>
+        <v>39874</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>51228</v>
+        <v>51264</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7535022881827831</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6550209762582695</v>
+        <v>0.6491529940368512</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8339860435265009</v>
+        <v>0.8345718443282745</v>
       </c>
     </row>
     <row r="25">
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5056</v>
+        <v>5621</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.04358922416479425</v>
+        <v>0.04358922416479424</v>
       </c>
       <c r="H25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1378308177908338</v>
+        <v>0.1532454214194179</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -2257,19 +2257,19 @@
         <v>4187</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1980</v>
+        <v>2072</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7552</v>
+        <v>7780</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1692020469253248</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0800177347532042</v>
+        <v>0.08374620455355045</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3052329396380259</v>
+        <v>0.3144131287070266</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -2278,19 +2278,19 @@
         <v>5786</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2784</v>
+        <v>3024</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>9679</v>
+        <v>10959</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09418907692418743</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04533139435551554</v>
+        <v>0.04922760400344637</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1575669739644053</v>
+        <v>0.1784136419712083</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>7656</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3736</v>
+        <v>3910</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12370</v>
+        <v>12482</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2086995587544591</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1018480127309446</v>
+        <v>0.1065862377966454</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3372268981982141</v>
+        <v>0.3402808750730906</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2328,19 +2328,19 @@
         <v>1700</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4753</v>
+        <v>4400</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.06871055210673974</v>
+        <v>0.06871055210673971</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01985407093513733</v>
+        <v>0.01870463049245645</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1920942539438723</v>
+        <v>0.1778473027312899</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -2349,19 +2349,19 @@
         <v>9356</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5170</v>
+        <v>5244</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>15473</v>
+        <v>14983</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1523086348930296</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08417267284183397</v>
+        <v>0.08537651608398403</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2519087288956608</v>
+        <v>0.2439176577808406</v>
       </c>
     </row>
     <row r="27">
@@ -2453,19 +2453,19 @@
         <v>75236</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>64976</v>
+        <v>64200</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>84479</v>
+        <v>83852</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.7448590384341972</v>
+        <v>0.7448590384341971</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6432816481707349</v>
+        <v>0.6355955795669647</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8363716826477389</v>
+        <v>0.8301603329208835</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>114</v>
@@ -2474,19 +2474,19 @@
         <v>93290</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>83876</v>
+        <v>84341</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>101149</v>
+        <v>100903</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.778503759435654</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6999442082884051</v>
+        <v>0.7038249667221967</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8440850787955605</v>
+        <v>0.8420291139036359</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>172</v>
@@ -2495,19 +2495,19 @@
         <v>168526</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>154759</v>
+        <v>154940</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>180871</v>
+        <v>181343</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7631154158566046</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7007731158122892</v>
+        <v>0.7015924320427854</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8190146262983529</v>
+        <v>0.8211490428631412</v>
       </c>
     </row>
     <row r="29">
@@ -2524,19 +2524,19 @@
         <v>12455</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6969</v>
+        <v>6819</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21019</v>
+        <v>20426</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1233051678638181</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06899719094895085</v>
+        <v>0.06750523924035691</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2080974598704244</v>
+        <v>0.2022188312588034</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -2545,19 +2545,19 @@
         <v>9896</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5492</v>
+        <v>5585</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>16312</v>
+        <v>16294</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.08258246319549246</v>
+        <v>0.08258246319549248</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0458294008362319</v>
+        <v>0.04660728927738816</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1361241312976303</v>
+        <v>0.1359689183089086</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>24</v>
@@ -2566,19 +2566,19 @@
         <v>22351</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>14255</v>
+        <v>14411</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>32639</v>
+        <v>32338</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1012081183429141</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06454771725290584</v>
+        <v>0.06525717175636668</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1477969402825687</v>
+        <v>0.146431472213267</v>
       </c>
     </row>
     <row r="30">
@@ -2595,19 +2595,19 @@
         <v>13316</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6055</v>
+        <v>6903</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>21427</v>
+        <v>22623</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1318357937019848</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05994192320971413</v>
+        <v>0.06833798086922099</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.21213397860294</v>
+        <v>0.2239774959942215</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>20</v>
@@ -2616,19 +2616,19 @@
         <v>16646</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10213</v>
+        <v>10264</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>25468</v>
+        <v>24856</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.1389137773688536</v>
+        <v>0.1389137773688537</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08522893236629311</v>
+        <v>0.08564923041469526</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2125264885397336</v>
+        <v>0.2074199143642899</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>31</v>
@@ -2637,19 +2637,19 @@
         <v>29963</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20613</v>
+        <v>21259</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>43478</v>
+        <v>42968</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.1356764658004812</v>
+        <v>0.1356764658004813</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09333688974713408</v>
+        <v>0.0962641875492898</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.196874258322927</v>
+        <v>0.1945660657834049</v>
       </c>
     </row>
     <row r="31">
@@ -2741,19 +2741,19 @@
         <v>44101</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>37006</v>
+        <v>35632</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>50519</v>
+        <v>50569</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7486028158164439</v>
+        <v>0.7486028158164438</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6281696465626561</v>
+        <v>0.6048424865283111</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8575417945332011</v>
+        <v>0.8583965504860788</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>68</v>
@@ -2762,19 +2762,19 @@
         <v>54555</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>45906</v>
+        <v>47281</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>60570</v>
+        <v>61065</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7524980263826536</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6332100978910173</v>
+        <v>0.652173894237056</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8354696378115239</v>
+        <v>0.8423008067938934</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>105</v>
@@ -2783,19 +2783,19 @@
         <v>98656</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>88086</v>
+        <v>86569</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>108101</v>
+        <v>107977</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7507517919205383</v>
+        <v>0.7507517919205384</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6703160459419641</v>
+        <v>0.6587700405166447</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8226260332996944</v>
+        <v>0.8216798755468635</v>
       </c>
     </row>
     <row r="33">
@@ -2812,19 +2812,19 @@
         <v>5470</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2076</v>
+        <v>2187</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>11174</v>
+        <v>12043</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.0928545146018412</v>
+        <v>0.09285451460184121</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.03524054096388653</v>
+        <v>0.03712954334577305</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1896822743019888</v>
+        <v>0.2044238888933408</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>10</v>
@@ -2833,19 +2833,19 @@
         <v>8279</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>4409</v>
+        <v>3795</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>14441</v>
+        <v>13589</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1142018991327437</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.06082104214427068</v>
+        <v>0.05234237267941556</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1991874673369937</v>
+        <v>0.1874442853347374</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>15</v>
@@ -2854,19 +2854,19 @@
         <v>13750</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>7841</v>
+        <v>7646</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>21678</v>
+        <v>21220</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1046318032649465</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.05966729202686266</v>
+        <v>0.05818640290746237</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1649631972970731</v>
+        <v>0.1614810944480805</v>
       </c>
     </row>
     <row r="34">
@@ -2883,19 +2883,19 @@
         <v>9340</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4356</v>
+        <v>4172</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>17185</v>
+        <v>17383</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.1585426695817149</v>
+        <v>0.1585426695817148</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0739339485063905</v>
+        <v>0.07081493213812551</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.291715987877176</v>
+        <v>0.2950744263264146</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>10</v>
@@ -2904,19 +2904,19 @@
         <v>9664</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5040</v>
+        <v>4768</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>18266</v>
+        <v>17268</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1333000744846028</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06952436248447852</v>
+        <v>0.06576377696221387</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2519545051362476</v>
+        <v>0.2381903212775234</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>17</v>
@@ -2925,19 +2925,19 @@
         <v>19004</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>11070</v>
+        <v>11341</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>29327</v>
+        <v>29782</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1446164048145149</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08424046966986422</v>
+        <v>0.08630252734083817</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2231754217277785</v>
+        <v>0.2266312710659533</v>
       </c>
     </row>
     <row r="35">
@@ -3029,19 +3029,19 @@
         <v>316347</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>296687</v>
+        <v>296105</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>336206</v>
+        <v>335188</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.7533601824342246</v>
+        <v>0.7533601824342245</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.7065399209375233</v>
+        <v>0.705155538978731</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.800651592902668</v>
+        <v>0.7982283791511208</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>403</v>
@@ -3050,19 +3050,19 @@
         <v>311287</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>295572</v>
+        <v>295999</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>325395</v>
+        <v>326469</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.7731930255181153</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7341589382417096</v>
+        <v>0.7352210494221351</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8082349379552026</v>
+        <v>0.8109025161142157</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>671</v>
@@ -3071,19 +3071,19 @@
         <v>627634</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>603940</v>
+        <v>601595</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>652608</v>
+        <v>650017</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.7630678372013731</v>
+        <v>0.7630678372013728</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.7342612209257195</v>
+        <v>0.7314094829899477</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7934312901474434</v>
+        <v>0.7902811489668338</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>47444</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>35268</v>
+        <v>34987</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>61683</v>
+        <v>63335</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1129858344849021</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0839891352245407</v>
+        <v>0.08331925361572995</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1468938984918446</v>
+        <v>0.1508269598305297</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>63</v>
@@ -3121,19 +3121,19 @@
         <v>42612</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>32828</v>
+        <v>32998</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>53911</v>
+        <v>53097</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1058413531813367</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.08154080123439504</v>
+        <v>0.08196155007481186</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1339075765859358</v>
+        <v>0.1318847207260938</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>106</v>
@@ -3142,19 +3142,19 @@
         <v>90056</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>74676</v>
+        <v>75130</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>107263</v>
+        <v>107694</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.1094887989014515</v>
+        <v>0.1094887989014514</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09079003467502113</v>
+        <v>0.09134218556939347</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1304089531368687</v>
+        <v>0.1309333082741544</v>
       </c>
     </row>
     <row r="38">
@@ -3171,19 +3171,19 @@
         <v>56123</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>42804</v>
+        <v>42890</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>72096</v>
+        <v>73309</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1336539830808733</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1019345817901591</v>
+        <v>0.1021389132999431</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1716907081873514</v>
+        <v>0.1745801736555647</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>63</v>
@@ -3192,19 +3192,19 @@
         <v>48701</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>37723</v>
+        <v>37081</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>63073</v>
+        <v>61585</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1209656213005479</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.0936979194344809</v>
+        <v>0.09210322614339148</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1566649472799097</v>
+        <v>0.1529697025503958</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>113</v>
@@ -3213,19 +3213,19 @@
         <v>104824</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>86657</v>
+        <v>86608</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>124600</v>
+        <v>126518</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1274433638971756</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1053557501763695</v>
+        <v>0.1052963510258097</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1514872190587232</v>
+        <v>0.1538182130259655</v>
       </c>
     </row>
     <row r="39">
